--- a/COS80001 - Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
+++ b/COS80001 - Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/braminzad_swin_edu_au/Documents/Swinburne-Classes/Multi-Cloud-S1-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_3\COS80001 - Cloud Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E5D3AC64-0DD5-9649-A6BC-4AFB3C79EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A286D5-6D87-C248-BC23-5F0A189DA9B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F1CC3A-B47A-4D70-9405-4FE683E06141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v8MtjwWnUnJ1E84wJ1k5H4qGbaNPzen1qZdvVoWshRx4foa2IqHs4EoopOwfMJWW9SFy1tZBXXoasWKu94dlfw==" workbookSaltValue="2keic6eghLEKaBj9VwxLsA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="500" windowWidth="35120" windowHeight="27040" xr2:uid="{CF3E672E-2976-6744-95BE-48AF817319B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CF3E672E-2976-6744-95BE-48AF817319B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -998,6 +996,34 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -1006,75 +1032,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <b/>
@@ -1096,83 +1094,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1239,6 +1160,104 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1253,7 +1272,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1267,19 +1286,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1287,27 +1294,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1623,62 +1609,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E252A9-EA31-394F-B0F7-07907A1A82ED}">
   <dimension ref="A5:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8125" style="1" customWidth="1"/>
     <col min="7" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="10.8125" style="2"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="26.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -1692,13 +1678,13 @@
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="23" t="s">
         <v>55</v>
       </c>
@@ -1726,21 +1712,21 @@
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="33">
         <v>6</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4"/>
       <c r="E11" s="14" t="s">
         <v>34</v>
@@ -1748,27 +1734,27 @@
       <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="38" t="str">
+      <c r="B12" s="42" t="str">
         <f>IF(M45=0,"Enter Your Scores --&gt;",IF(OR(M10&lt;6,M12&lt;5,M14&lt;10,M16&lt;2.5,M18&lt;10,M20&lt;2.5,M22&lt;14),"FAILED",IF(AND(M45&gt;=50,M45&lt;60),"PASS",IF(AND(M45&gt;=60,M45&lt;70),"CREDIT",IF(AND(M45&gt;=70,M45&lt;80),"DISTINCTION",IF(AND(M45&gt;=80,M45&lt;=100),"HIGH DISTINCTION","Invalid Scores!"))))))</f>
-        <v>Enter Your Scores --&gt;</v>
-      </c>
-      <c r="C12" s="39"/>
+        <v>FAILED</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="4"/>
       <c r="E12" s="17" t="s">
         <v>2</v>
@@ -1776,21 +1762,23 @@
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="33">
         <v>5</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4"/>
       <c r="E13" s="14" t="s">
         <v>9</v>
@@ -1798,19 +1786,19 @@
       <c r="F13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D14" s="4"/>
       <c r="E14" s="17" t="s">
         <v>2</v>
@@ -1818,21 +1806,21 @@
       <c r="F14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="33">
         <v>10</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="4"/>
       <c r="E15" s="14" t="s">
         <v>13</v>
@@ -1840,19 +1828,19 @@
       <c r="F15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D16" s="4"/>
       <c r="E16" s="17" t="s">
         <v>2</v>
@@ -1860,21 +1848,21 @@
       <c r="F16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="33">
         <v>2.5</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="4:13" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="4:13" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="4"/>
       <c r="E17" s="19" t="s">
         <v>60</v>
@@ -1882,19 +1870,19 @@
       <c r="F17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
         <v>2</v>
@@ -1902,21 +1890,21 @@
       <c r="F18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="33">
         <v>10</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="4:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="4"/>
       <c r="E19" s="14" t="s">
         <v>47</v>
@@ -1924,19 +1912,19 @@
       <c r="F19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D20" s="4"/>
       <c r="E20" s="17" t="s">
         <v>14</v>
@@ -1944,21 +1932,21 @@
       <c r="F20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="33">
         <v>2.5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="4:13" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="4:13" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="4"/>
       <c r="E21" s="19" t="s">
         <v>59</v>
@@ -1966,19 +1954,19 @@
       <c r="F21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D22" s="4"/>
       <c r="E22" s="17" t="s">
         <v>14</v>
@@ -1986,21 +1974,21 @@
       <c r="F22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="33">
         <v>14</v>
       </c>
       <c r="L22" s="26"/>
-      <c r="M22" s="33"/>
-    </row>
-    <row r="23" spans="4:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="4:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="4"/>
       <c r="E23" s="24" t="s">
         <v>15</v>
@@ -2008,19 +1996,19 @@
       <c r="F23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="48"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="4:13" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="4:13" ht="7.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D24" s="4"/>
       <c r="E24" s="28"/>
       <c r="F24" s="29"/>
@@ -2032,7 +2020,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
         <v>53</v>
@@ -2052,13 +2040,13 @@
       <c r="J25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="39">
         <v>4</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="4:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="4"/>
       <c r="E26" s="14" t="s">
         <v>34</v>
@@ -2078,11 +2066,11 @@
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D27" s="4"/>
       <c r="E27" s="21" t="s">
         <v>53</v>
@@ -2102,13 +2090,15 @@
       <c r="J27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="33">
         <v>1.5</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="4:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="4"/>
       <c r="E28" s="14" t="s">
         <v>9</v>
@@ -2128,11 +2118,11 @@
       <c r="J28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="37"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="41"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D29" s="4"/>
       <c r="E29" s="21" t="s">
         <v>53</v>
@@ -2152,13 +2142,13 @@
       <c r="J29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="33">
         <v>4</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="4:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="4"/>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -2178,11 +2168,11 @@
       <c r="J30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="34"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="41"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D31" s="4"/>
       <c r="E31" s="21" t="s">
         <v>53</v>
@@ -2202,13 +2192,13 @@
       <c r="J31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="33">
         <v>3</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="33"/>
-    </row>
-    <row r="32" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="4"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
@@ -2228,11 +2218,11 @@
       <c r="J32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="37"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="34"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D33" s="4"/>
       <c r="E33" s="21" t="s">
         <v>53</v>
@@ -2240,21 +2230,21 @@
       <c r="F33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="36"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="33">
         <v>2</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="4:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="4"/>
       <c r="E34" s="14" t="s">
         <v>47</v>
@@ -2262,19 +2252,19 @@
       <c r="F34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="37"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="37"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="41"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D35" s="4"/>
       <c r="E35" s="21" t="s">
         <v>54</v>
@@ -2294,13 +2284,13 @@
       <c r="J35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="33">
         <v>3</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="33"/>
-    </row>
-    <row r="36" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="40"/>
+    </row>
+    <row r="36" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="4"/>
       <c r="E36" s="19" t="s">
         <v>59</v>
@@ -2320,11 +2310,11 @@
       <c r="J36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="41"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D37" s="4"/>
       <c r="E37" s="21" t="s">
         <v>54</v>
@@ -2344,13 +2334,13 @@
       <c r="J37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="33">
         <v>7.5</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="4:13" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="4"/>
       <c r="E38" s="14" t="s">
         <v>15</v>
@@ -2370,11 +2360,11 @@
       <c r="J38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="37"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="34"/>
-    </row>
-    <row r="39" spans="4:13" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="41"/>
+    </row>
+    <row r="39" spans="4:13" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="4"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -2386,7 +2376,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="31"/>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D40" s="4"/>
       <c r="E40" s="21" t="s">
         <v>24</v>
@@ -2406,13 +2396,13 @@
       <c r="J40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="33">
         <v>20</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="33"/>
-    </row>
-    <row r="41" spans="4:13" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="40"/>
+    </row>
+    <row r="41" spans="4:13" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="4"/>
       <c r="E41" s="14" t="s">
         <v>30</v>
@@ -2432,11 +2422,11 @@
       <c r="J41" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="37"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="34"/>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="41"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D42" s="4"/>
       <c r="E42" s="21" t="s">
         <v>26</v>
@@ -2456,13 +2446,13 @@
       <c r="J42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="33">
         <v>5</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="33"/>
-    </row>
-    <row r="43" spans="4:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="40"/>
+    </row>
+    <row r="43" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="4"/>
       <c r="E43" s="14" t="s">
         <v>27</v>
@@ -2482,11 +2472,11 @@
       <c r="J43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="37"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="4:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="41"/>
+    </row>
+    <row r="44" spans="4:13" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2498,7 +2488,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.5">
       <c r="K45" s="22" t="s">
         <v>39</v>
       </c>
@@ -2508,12 +2498,50 @@
       </c>
       <c r="M45" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FJY+hjz4LbcQbhYVDrvqVYgEp9VLePdwVRZ/rLfIRnNk+LIwkthGQwYwa4H5HFyW1v/WrgDLAV1/E9ctGl8alQ==" saltValue="TMKDA9tgZ+eN8TtVtqh2yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="A5:C5"/>
@@ -2530,151 +2558,106 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10 F12 F14 F16 F22 A10">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
-      <formula>$A$10="PASS"</formula>
+  <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22 G25 G27 G29 H31 F33 G37 G40 G42">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+      <formula>$A$10="HIGH DISTINCTION"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 F12 F14 F16 F22 A10 G27 H25 H29 H31 H37 H33">
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
-      <formula>$A$10="CREDIT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 F12 F14 F16 F22 A10 G25 G27 H29 H31 I40 I42 G37 F33">
+  <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22 G25 G27 H31 F33 G37 H29 I40 I42">
     <cfRule type="expression" dxfId="25" priority="29">
       <formula>$A$10="DISTINCTION"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 F12 F14 F16 F22 A10 G25 G27 G29 H31 G37 G40 G42 F33">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
-      <formula>$A$10="HIGH DISTINCTION"</formula>
+  <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22 G27 H29 H31 H25 H33 H37">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
+      <formula>$A$10="CREDIT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15 M14">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>AND(M14&gt;=0,M14&lt;10,M14&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+      <formula>$A$10="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>B12="FAILED"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+      <formula>B12="HIGH DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+      <formula>B12="DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>B12="CREDIT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>B12="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>B12="CREDIT"</formula>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>$A$10="HIGH DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$A$10="DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>$A$10="CREDIT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>$A$10="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
-      <formula>B12="DISTINCTION"</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+      <formula>$A$10="HIGH DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$A$10="DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>$A$10="CREDIT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>$A$10="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>B12="FAILED"</formula>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>$A$10="HIGH DISTINCTION"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
-      <formula>B12="HIGH DISTINCTION"</formula>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$A$10="DISTINCTION"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+      <formula>$A$10="CREDIT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11 M10">
-    <cfRule type="expression" dxfId="17" priority="21">
+  <conditionalFormatting sqref="M10:M11">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>AND(M10&gt;=0,M10&lt;6,M10&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>AND(M12&gt;=0,M12&lt;5,M12&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M19">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>AND(M18&gt;=0,M18&lt;10,M18&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="M14:M15">
+    <cfRule type="expression" dxfId="4" priority="27">
+      <formula>AND(M14&gt;=0,M14&lt;10,M14&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>AND(M22&gt;=0,M22&lt;14,M22&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="M16:M17">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(M16&gt;=0,M16&lt;2.5,M16&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
-      <formula>$A$10="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
-      <formula>$A$10="CREDIT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$A$10="DISTINCTION"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
-      <formula>$A$10="HIGH DISTINCTION"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
-      <formula>$A$10="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>$A$10="CREDIT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>$A$10="DISTINCTION"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
-      <formula>$A$10="HIGH DISTINCTION"</formula>
+  <conditionalFormatting sqref="M18:M19">
+    <cfRule type="expression" dxfId="2" priority="17">
+      <formula>AND(M18&gt;=0,M18&lt;10,M18&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M21">
@@ -2682,24 +2665,9 @@
       <formula>AND(M20&gt;=0,M20&lt;2.5,M20&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>$A$10="CREDIT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$A$10="DISTINCTION"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>$A$10="HIGH DISTINCTION"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M17">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(M16&gt;=0,M16&lt;2.5,M16&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="M22:M23">
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>AND(M22&gt;=0,M22&lt;14,M22&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
